--- a/storage/app/download/zrcfx_relationimport.xlsx
+++ b/storage/app/download/zrcfx_relationimport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B4C3C-1E78-43FC-B8F1-89D1C152486F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C157327-7A1C-4497-A641-F8C3F99E45E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="0" windowWidth="19500" windowHeight="8010" xr2:uid="{086212A0-3074-40E2-B514-08D36390D8C6}"/>
+    <workbookView xWindow="22290" yWindow="0" windowWidth="19500" windowHeight="8010" xr2:uid="{086212A0-3074-40E2-B514-08D36390D8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="30">
   <si>
     <t>机种名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,33 +53,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 冲压</t>
+    <t>冲压</t>
+  </si>
+  <si>
+    <t>07-32626Z04-B</t>
+  </si>
+  <si>
+    <t>BKT,LCD ASSY_7</t>
+  </si>
+  <si>
+    <t>07-32629Z04-A</t>
+  </si>
+  <si>
+    <t>BKT,HOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-37361Z02-A </t>
+  </si>
+  <si>
+    <t>SPRING,GND 7L</t>
+  </si>
+  <si>
+    <t>07-32628Z04-A</t>
+  </si>
+  <si>
+    <t>BKT,LCD 7</t>
+  </si>
+  <si>
+    <t>27-32630Z05-A</t>
+  </si>
+  <si>
+    <t>CHAS,REAR</t>
+  </si>
+  <si>
+    <t>07-32632Z02-A</t>
+  </si>
+  <si>
+    <t>BKT,DISP R</t>
+  </si>
+  <si>
+    <t>07-32631Z02-A</t>
+  </si>
+  <si>
+    <t>BKT,DISP L</t>
+  </si>
+  <si>
+    <t>07-32625Z04-A</t>
+  </si>
+  <si>
+    <t>BKT,LCD ASSY_8</t>
+  </si>
+  <si>
+    <t>07-32627Z02-B</t>
+  </si>
+  <si>
+    <t>BKT,LCD 8</t>
+  </si>
+  <si>
+    <t>27-32630Z04-A</t>
+  </si>
+  <si>
+    <t>成型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 成型</t>
+    <t>QH00048A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QH00001</t>
+    <t>QH00074A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pinfan1</t>
+    <t>QH00075A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QH00002</t>
-  </si>
-  <si>
-    <t>pinfan2</t>
-  </si>
-  <si>
-    <t>pinming2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinming1</t>
+    <t>QH00076A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960FAB9-D395-40B9-8928-99E38066E26F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,16 +529,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -496,19 +546,427 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
